--- a/Data/FOSvolume_1989.xlsx
+++ b/Data/FOSvolume_1989.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy Hill\Desktop\BPA_stuff\Northwest Region\Williamette\ResSim Reservoirs\Willamette\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdenaro\OneDrive - University of North Carolina at Chapel Hill\UNC_2017\PNW\INFEWSgroup_Willamette\Willamette_model\Williamette\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9190"/>
   </bookViews>
   <sheets>
     <sheet name="FOS_1988_Initial" sheetId="1" r:id="rId1"/>
@@ -836,18 +836,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -858,766 +858,758 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>31099.999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31664.174999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B3" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="C3">
-        <v>31045.292000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31592.002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B4" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="C4">
-        <v>30981.582999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31510.992999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B5" s="1">
         <v>0.125</v>
       </c>
       <c r="C5">
-        <v>31099.999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31619.048999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B6" s="1">
         <v>0.16666666666666666</v>
       </c>
       <c r="C6">
-        <v>31233.46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31727.453000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B7" s="1">
         <v>0.20833333333333334</v>
       </c>
       <c r="C7">
-        <v>31349.562999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31772.724999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B8" s="1">
         <v>0.25</v>
       </c>
       <c r="C8">
-        <v>31439.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31745.554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B9" s="1">
         <v>0.29166666666666669</v>
       </c>
       <c r="C9">
-        <v>31421.214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31673.206999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B10" s="1">
         <v>0.33333333333333331</v>
       </c>
       <c r="C10">
-        <v>31367.460999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31619.048999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B11" s="1">
         <v>0.375</v>
       </c>
       <c r="C11">
-        <v>31313.795999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31484.034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B12" s="1">
         <v>0.41666666666666669</v>
       </c>
       <c r="C12">
-        <v>31269.141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31412.249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B13" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="C13">
-        <v>31206.724999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31322.734</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B14" s="1">
         <v>0.5</v>
       </c>
       <c r="C14">
-        <v>31153.319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31233.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B15" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="C15">
-        <v>31099.999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31144.425999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B16" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="C16">
-        <v>31045.292000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31054.403999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B17" s="1">
         <v>0.625</v>
       </c>
       <c r="C17">
-        <v>30981.582999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30945.233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B18" s="1">
         <v>0.66666666666666663</v>
       </c>
       <c r="C18">
-        <v>31126.648000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30863.593000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B19" s="1">
         <v>0.70833333333333337</v>
       </c>
       <c r="C19">
-        <v>31251.295999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30764.087</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B20" s="1">
         <v>0.75</v>
       </c>
       <c r="C20">
-        <v>31385.368999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30854.534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B21" s="1">
         <v>0.79166666666666663</v>
       </c>
       <c r="C21">
-        <v>31475.053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30936.151999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <v>32506</v>
+        <v>32508</v>
       </c>
       <c r="B22" s="1">
         <v>0.83333333333333337</v>
       </c>
       <c r="C22">
+        <v>31017.973000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>31278.066999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B24" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C24">
+        <v>31233.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C25">
+        <v>31188.913</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C26">
+        <v>31349.562999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C27">
+        <v>31502.005000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C28">
+        <v>31619.048999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C29">
+        <v>31619.048999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C30">
+        <v>31601.014999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C31">
+        <v>31564.976999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C32">
+        <v>31564.976999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C33">
+        <v>31528.977999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C34">
+        <v>31484.034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C35">
         <v>31457.097000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>32506</v>
-      </c>
-      <c r="B23" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C36">
+        <v>31421.214</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C37">
+        <v>31394.327000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C38">
+        <v>31385.368999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C39">
+        <v>31546.973000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C40">
+        <v>31718.405999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C41">
+        <v>31881.626</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C42">
+        <v>31981.760999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C43">
+        <v>31981.760999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B44" s="1">
         <v>0.875</v>
       </c>
-      <c r="C23">
+      <c r="C44">
+        <v>31908.905999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C45">
+        <v>31836.207999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>32507</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C46">
+        <v>31754.609</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="C47">
+        <v>31045.292000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B48" s="1">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C48">
+        <v>30981.582999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C49">
+        <v>31099.999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C50">
+        <v>31233.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C51">
+        <v>31349.562999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C52">
+        <v>31439.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="C53">
+        <v>31421.214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C54">
+        <v>31367.460999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="C55">
+        <v>31313.795999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C56">
+        <v>31269.141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C57">
+        <v>31206.724999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C58">
+        <v>31153.319</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C59">
+        <v>31099.999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C60">
+        <v>31045.292000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C61">
+        <v>30981.582999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C62">
+        <v>31126.648000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C63">
+        <v>31251.295999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C64">
+        <v>31385.368999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C65">
+        <v>31475.053</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C66">
+        <v>31457.097000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C67">
         <v>31412.249</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>32506</v>
-      </c>
-      <c r="B24" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B68" s="1">
         <v>0.91666666666666663</v>
       </c>
-      <c r="C24">
+      <c r="C68">
         <v>31367.460999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>32506</v>
-      </c>
-      <c r="B25" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>32506</v>
+      </c>
+      <c r="B69" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C25">
+      <c r="C69">
         <v>31322.734</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>31278.066999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B27" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C27">
-        <v>31233.46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B28" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C28">
-        <v>31188.913</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B29" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C29">
-        <v>31349.562999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B30" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C30">
-        <v>31502.005000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C31">
-        <v>31619.048999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C32">
-        <v>31619.048999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B33" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C33">
-        <v>31601.014999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C34">
-        <v>31564.976999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B35" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C35">
-        <v>31564.976999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B36" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C36">
-        <v>31528.977999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B37" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C37">
-        <v>31484.034</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B38" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C38">
-        <v>31457.097000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C39">
-        <v>31421.214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C40">
-        <v>31394.327000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C41">
-        <v>31385.368999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B42" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C42">
-        <v>31546.973000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C43">
-        <v>31718.405999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C44">
-        <v>31881.626</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C45">
-        <v>31981.760999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C46">
-        <v>31981.760999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B47" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="C47">
-        <v>31908.905999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B48" s="1">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="C48">
-        <v>31836.207999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
-        <v>32507</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="C49">
-        <v>31754.609</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B50" s="1">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>31664.174999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B51" s="1">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="C51">
-        <v>31592.002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B52" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C52">
-        <v>31510.992999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B53" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C53">
-        <v>31619.048999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B54" s="1">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C54">
-        <v>31727.453000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="C55">
-        <v>31772.724999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C56">
-        <v>31745.554</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B57" s="1">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="C57">
-        <v>31673.206999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="C58">
-        <v>31619.048999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B59" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="C59">
-        <v>31484.034</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B60" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="C60">
-        <v>31412.249</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B61" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="C61">
-        <v>31322.734</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C62">
-        <v>31233.46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B63" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C63">
-        <v>31144.425999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B64" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C64">
-        <v>31054.403999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.625</v>
-      </c>
-      <c r="C65">
-        <v>30945.233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B66" s="1">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C66">
-        <v>30863.593000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B67" s="1">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="C67">
-        <v>30764.087</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C68">
-        <v>30854.534</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C69">
-        <v>30936.151999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>32508</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C70">
-        <v>31017.973000000002</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A3:C70">
+    <sortCondition descending="1" ref="A3:A70"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>